--- a/data/Map124.xlsx
+++ b/data/Map124.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>自動実行</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>リリー</t>
+  </si>
+  <si>
+    <t>Rewrite     -   Lily</t>
   </si>
   <si>
     <t>イベント実行</t>
@@ -649,7 +652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A74"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,374 +660,377 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map124.xlsx
+++ b/data/Map124.xlsx
@@ -32,7 +32,7 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>イベント実行</t>

--- a/data/Map124.xlsx
+++ b/data/Map124.xlsx
@@ -652,7 +652,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,375 +660,378 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>74</v>
       </c>

--- a/data/Map124.xlsx
+++ b/data/Map124.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>自動実行</t>
   </si>
@@ -188,6 +188,11 @@
     <t>\n&lt;シィナ&gt;はぁ～・・・</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;なるほど。これがタバコにゃ。
+クソ野郎のクソキモい体臭に比べれば確かに・・・
+煙の方がずっとマシにゃぁ。</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;なるほどにゃ。これがタバコにゃ。
 クソ野郎のクソキモい体臭に比べれば確かに・・・
 煙の方がずっとマシにゃぁ。</t>
@@ -198,6 +203,11 @@
 悲劇的なシナリオを期待してたんだけど。</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;捕まって
+無理やり閉じ込められてただけだし。
+思い出してもムカツクにゃ。</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;捕まえられて
 無理やり閉じ込められてただけだし。
 思い出してもムカツクにゃ。</t>
@@ -229,6 +239,10 @@
   </si>
   <si>
     <t>\n&lt;赤髪の淫魔&gt;ちょっと！なんなのあんた。
+普通は淫魔になったら、ひとりで自由にするものなの！</t>
+  </si>
+  <si>
+    <t>\n&lt;赤髪の淫魔&gt;ちょっと！なんなのあんた。
 普通は淫魔になったらひとりで自由にするものなの！</t>
   </si>
   <si>
@@ -298,6 +312,10 @@
   <si>
     <t>\n&lt;赤髪の淫魔&gt;リリー。\.\.
 リリーでいいわ。</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;私はリリー。
+よろしく。シィナ。</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;私はリリー。
@@ -652,7 +670,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,380 +678,596 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map124.xlsx
+++ b/data/Map124.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEA0A91-9F61-4EFA-AC07-CC16395CB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="139">
   <si>
     <t>自動実行</t>
   </si>
@@ -193,11 +199,6 @@
 煙の方がずっとマシにゃぁ。</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;なるほどにゃ。これがタバコにゃ。
-クソ野郎のクソキモい体臭に比べれば確かに・・・
-煙の方がずっとマシにゃぁ。</t>
-  </si>
-  <si>
     <t>\n&lt;赤髪の淫魔&gt;あんたが『可愛がられてるペット』で
 『大好きなご主人様を本能に逆らえず襲ってしまう』っていう
 悲劇的なシナリオを期待してたんだけど。</t>
@@ -208,11 +209,6 @@
 思い出してもムカツクにゃ。</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;捕まえられて
-無理やり閉じ込められてただけだし。
-思い出してもムカツクにゃ。</t>
-  </si>
-  <si>
     <t>\n&lt;赤髪の淫魔&gt;ふふ♥
 ま、それはそれで面白いもの見られた。
 楽しませてもらったわ。</t>
@@ -242,10 +238,6 @@
 普通は淫魔になったら、ひとりで自由にするものなの！</t>
   </si>
   <si>
-    <t>\n&lt;赤髪の淫魔&gt;ちょっと！なんなのあんた。
-普通は淫魔になったらひとりで自由にするものなの！</t>
-  </si>
-  <si>
     <t>\n&lt;シィナ&gt;責任取るにゃん！！責任取るにゃん！！</t>
   </si>
   <si>
@@ -318,10 +310,6 @@
 よろしく。シィナ。</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;私はリリー。
-よろしくね。シィナ。</t>
-  </si>
-  <si>
     <t>ケムリ</t>
   </si>
   <si>
@@ -332,19 +320,280 @@
   </si>
   <si>
     <t>紙</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;What's this?
+Such a cute little voice.
+Do you want to come out?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Meooow!!!
+(Die you son of a bitch!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Oh my.
+You are just too cute.</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Flash a wad of bills, and women flock to me.
+It's so simple for a man to get any woman he wants.
+Everybody loves me.</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;...
+But what about you?</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;I bought you all the finest crispy tuna you could eat,
+and still your heart has not opened up to me.</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Come, curl up purring at my feet.
+Love me like everyone else does.</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Ha～…</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaah!! Hiss! Hiss!
+(Cough! Can't breathe!! Peh! Peh!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;I thought a cat with a rare coat would
+make a good pet, but it would seem not.</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;You may have\..\..\..\.\.
+Outlived your usefulness.</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Who's there?
+I did not say you could enter.</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Y-you're a demon!?
+Someone!!
+Call the guards!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Ahh? You didn't hear any screams or gasps
+just now? The soundproofing on this room
+must be incredible.。</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Nobody's coming. They've all run away.
+Except for the one that I sucked dry.
+He's a little lovesick♥ Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Kuh...
+Keep back!
+Do you know who I am...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Ara, what a cute kitty cat♥
+Psspsspss♥
+C'mere kitty-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaah?
+(Who the hell are you?)</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Ah! I just had an idea♥
+So you don't like me. How'd you like to be milked
+to death by your own pet instead?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;N-nyaah...!
+What the hell!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Wh-what's your aim?
+D...do you want money? Name your price.
+We can talk about this.</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;My aim?
+Hmmm. Nothing in particular.
+Let's see～…</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Nope, I don't need anything. Sorry.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hah... Hah...
+M-my body feels hot...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Gwaaah...!!
+U-unhand me...!!
+Stop...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Gyaaaaaaaaaaaah!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Die!! Diiiiee!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;How much more dead does he need to be?
+He died quite a while ago.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Haah... Haah...</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;My my...
+Nothing but bones remain.
+\}Wonder where the clothes went.</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;How was it?
+How did it feel to drain a human for the first time?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;That felt terrible, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Suck～...
+...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Haah～...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaah, I see. So this is a cigarette.
+Compared to this piece of shit's body odor...
+This smoke smells like a bed of roses, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Fufu♥
+Well, that was quite interesting to watch.
+I had quite a lot of fun.</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;I was sort of hoping for a 'beloved pet' thing.
+Like, 'I can't go against my instincts, and attack my precious master',
+kind of a tragic screenplay, you know?</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Well, I should be going soon.
+This has been a lovely diversion.
+See you later, kitty cat.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;H-hold on just a moment, nya...!
+You're just going to leave me with this body!?
+How am I supposed to live like this...!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;I don't know.
+Just do whatever your heart desires. You're a succubus
+now. That's how our kind lives.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Bullshit!
+You did this to me!
+Take some damn responsibility, nya!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Now hold on! What do you think you're doing?
+Succubi do whatever they want, by themselves!</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Ouuuuch...!!
+L-Let go of me! Stupid cat...!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You did this! You made me like this...!
+Nyaaaaaaaaah!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;G-get off!!
+Owwww!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Meoooooooooww!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Bothersome thing!
+Show some respect!
+Geez...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyoooww...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Sniff...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I...\. I was so scared...\.\.
+I was always alone...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Don't\..\..\..\.\.
+Don't leave me alone\..\..\..</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Sigh...\.\.
+I guess I've got no other choice.\.
+I'll stay with you.\. Just for a little while.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;M-my name's Shina!
+What's your name?</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;I don't have a name.
+I'm a succubus.
+We don't need names...</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;But... I guess...</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;...
+(This crest... It's a black lily...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;\..\..\..</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Lily.\.\.
+Lily will do.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;My name is Lily.
+Nice to meet you, Shina.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Meow!
+(I'll kill you, nya!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;I've got money, power...
+And love...
+I really have it all.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;They captured me
+and forced me into a cage.
+Just thinking about it pisses me off, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Take responsibility!! Take responsibility, nyan!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -355,28 +604,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -666,19 +927,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94.140625" customWidth="1"/>
+    <col min="2" max="2" width="93.140625" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -694,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -702,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -710,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -718,7 +981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -726,562 +989,744 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="C45" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="C48" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="C49" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="C50" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="C51" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="C55" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="C57" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="C60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="C61" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="C63" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="C64" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="C65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="C67" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="C69" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="C70" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>